--- a/word/GANTT.xlsx
+++ b/word/GANTT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t xml:space="preserve">NUMERO </t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t xml:space="preserve">Effectué </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface graphique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compréhension de l'interface Matlab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place d'une interface de recupération des données </t>
+  </si>
+  <si>
+    <t>Mise en place d'une interface interactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amélioration de l'interface </t>
   </si>
 </sst>
 </file>
@@ -273,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -311,29 +326,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,6 +389,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,6 +777,63 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>611841</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>51547</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Losange 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15459635" y="4724401"/>
+          <a:ext cx="201706" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -982,44 +1102,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1058,332 +1178,383 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="B15" s="15">
         <v>3</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="17" t="s">
         <v>31</v>
       </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="17" t="s">
         <v>32</v>
       </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
+      <c r="B20" s="15">
         <v>4</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="15"/>
-      <c r="O23" s="14"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="9"/>
+      <c r="O23" s="8"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B25" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="P26" s="8"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
+      <c r="B27" s="15">
         <v>5</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="4" t="s">
         <v>51</v>
       </c>
     </row>

--- a/word/GANTT.xlsx
+++ b/word/GANTT.xlsx
@@ -389,17 +389,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -409,6 +400,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1102,44 +1102,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1199,7 +1199,7 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
@@ -1212,7 +1212,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -1225,7 +1225,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
@@ -1239,7 +1239,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1260,7 +1260,7 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
@@ -1273,7 +1273,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
@@ -1286,7 +1286,7 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
@@ -1308,7 +1308,7 @@
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
@@ -1325,7 +1325,7 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+      <c r="B15" s="12">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1346,7 +1346,7 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" t="s">
@@ -1366,7 +1366,7 @@
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" t="s">
@@ -1382,7 +1382,7 @@
       <c r="O17" s="8"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
@@ -1397,7 +1397,7 @@
       <c r="O18" s="8"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C19" t="s">
@@ -1411,7 +1411,7 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+      <c r="B20" s="12">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1432,7 +1432,7 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C21" t="s">
@@ -1446,7 +1446,7 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C22" t="s">
@@ -1463,7 +1463,7 @@
       <c r="P22" s="8"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="s">
@@ -1478,7 +1478,7 @@
       <c r="O23" s="8"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C24" t="s">
@@ -1501,7 +1501,7 @@
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C25" t="s">
@@ -1515,7 +1515,7 @@
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C26" t="s">
@@ -1527,7 +1527,7 @@
       <c r="P26" s="8"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="15">
+      <c r="B27" s="12">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1548,7 +1548,7 @@
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
@@ -1565,7 +1565,7 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>